--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2247.395009061642</v>
+        <v>2332.678962011369</v>
       </c>
       <c r="AB2" t="n">
-        <v>3074.984999468595</v>
+        <v>3191.674266356881</v>
       </c>
       <c r="AC2" t="n">
-        <v>2781.512746887748</v>
+        <v>2887.065353918626</v>
       </c>
       <c r="AD2" t="n">
-        <v>2247395.009061642</v>
+        <v>2332678.962011368</v>
       </c>
       <c r="AE2" t="n">
-        <v>3074984.999468595</v>
+        <v>3191674.266356881</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.080274185677441e-06</v>
+        <v>1.998790074872666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.06770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2781512.746887748</v>
+        <v>2887065.353918626</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>723.6308277831392</v>
+        <v>772.2426380372597</v>
       </c>
       <c r="AB3" t="n">
-        <v>990.1036229119068</v>
+        <v>1056.616446303304</v>
       </c>
       <c r="AC3" t="n">
-        <v>895.609522760356</v>
+        <v>955.7744556386125</v>
       </c>
       <c r="AD3" t="n">
-        <v>723630.8277831392</v>
+        <v>772242.6380372597</v>
       </c>
       <c r="AE3" t="n">
-        <v>990103.6229119068</v>
+        <v>1056616.446303304</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.047342055610696e-06</v>
+        <v>3.78811882657164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.422916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>895609.522760356</v>
+        <v>955774.4556386125</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>524.2295209717811</v>
+        <v>560.731071466795</v>
       </c>
       <c r="AB4" t="n">
-        <v>717.2739579678089</v>
+        <v>767.216989689843</v>
       </c>
       <c r="AC4" t="n">
-        <v>648.8183381196832</v>
+        <v>693.9948769896517</v>
       </c>
       <c r="AD4" t="n">
-        <v>524229.5209717811</v>
+        <v>560731.0714667951</v>
       </c>
       <c r="AE4" t="n">
-        <v>717273.9579678089</v>
+        <v>767216.989689843</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.406071862846459e-06</v>
+        <v>4.451862890597553e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.315625000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>648818.3381196832</v>
+        <v>693994.8769896517</v>
       </c>
     </row>
     <row r="5">
@@ -2345,28 +2345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>511.6900814237659</v>
+        <v>548.1916319187798</v>
       </c>
       <c r="AB5" t="n">
-        <v>700.1169435771845</v>
+        <v>750.0599752992186</v>
       </c>
       <c r="AC5" t="n">
-        <v>633.2987651024791</v>
+        <v>678.4753039724476</v>
       </c>
       <c r="AD5" t="n">
-        <v>511690.0814237659</v>
+        <v>548191.6319187798</v>
       </c>
       <c r="AE5" t="n">
-        <v>700116.9435771846</v>
+        <v>750059.9752992187</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.437145245905108e-06</v>
+        <v>4.509356784716106e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.235416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>633298.7651024791</v>
+        <v>678475.3039724476</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1318.85778871698</v>
+        <v>1389.354720658712</v>
       </c>
       <c r="AB2" t="n">
-        <v>1804.519410421797</v>
+        <v>1900.976422809612</v>
       </c>
       <c r="AC2" t="n">
-        <v>1632.298610550039</v>
+        <v>1719.549901053828</v>
       </c>
       <c r="AD2" t="n">
-        <v>1318857.78871698</v>
+        <v>1389354.720658712</v>
       </c>
       <c r="AE2" t="n">
-        <v>1804519.410421797</v>
+        <v>1900976.422809612</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.434149038700109e-06</v>
+        <v>2.733709403423538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.96145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1632298.610550039</v>
+        <v>1719549.901053828</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>532.4874847849328</v>
+        <v>579.4569924612301</v>
       </c>
       <c r="AB3" t="n">
-        <v>728.5728683726143</v>
+        <v>792.8386209237582</v>
       </c>
       <c r="AC3" t="n">
-        <v>659.0388963735743</v>
+        <v>717.1712156987871</v>
       </c>
       <c r="AD3" t="n">
-        <v>532487.4847849328</v>
+        <v>579456.9924612301</v>
       </c>
       <c r="AE3" t="n">
-        <v>728572.8683726143</v>
+        <v>792838.6209237581</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.342961572747469e-06</v>
+        <v>4.466046352536087e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.709374999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>659038.8963735743</v>
+        <v>717171.2156987871</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>484.7427940275317</v>
+        <v>519.9486790796627</v>
       </c>
       <c r="AB4" t="n">
-        <v>663.2464761312405</v>
+        <v>711.4167212335973</v>
       </c>
       <c r="AC4" t="n">
-        <v>599.9471633215499</v>
+        <v>643.5201078387013</v>
       </c>
       <c r="AD4" t="n">
-        <v>484742.7940275317</v>
+        <v>519948.6790796628</v>
       </c>
       <c r="AE4" t="n">
-        <v>663246.4761312405</v>
+        <v>711416.7212335973</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.458110022345299e-06</v>
+        <v>4.685537068605976e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.394791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>599947.1633215499</v>
+        <v>643520.1078387012</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>465.3796335111218</v>
+        <v>507.2334034758854</v>
       </c>
       <c r="AB2" t="n">
-        <v>636.7529456703359</v>
+        <v>694.0191201941398</v>
       </c>
       <c r="AC2" t="n">
-        <v>575.9821382239305</v>
+        <v>627.7829094247633</v>
       </c>
       <c r="AD2" t="n">
-        <v>465379.6335111219</v>
+        <v>507233.4034758854</v>
       </c>
       <c r="AE2" t="n">
-        <v>636752.9456703359</v>
+        <v>694019.1201941398</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.336207657984981e-06</v>
+        <v>4.975510919108853e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.508333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>575982.1382239305</v>
+        <v>627782.9094247633</v>
       </c>
     </row>
     <row r="3">
@@ -3257,28 +3257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>468.9565544395173</v>
+        <v>510.8103244042808</v>
       </c>
       <c r="AB3" t="n">
-        <v>641.6470466871808</v>
+        <v>698.9132212109846</v>
       </c>
       <c r="AC3" t="n">
-        <v>580.4091531086416</v>
+        <v>632.2099243094744</v>
       </c>
       <c r="AD3" t="n">
-        <v>468956.5544395173</v>
+        <v>510810.3244042808</v>
       </c>
       <c r="AE3" t="n">
-        <v>641647.0466871809</v>
+        <v>698913.2212109846</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.335870858783945e-06</v>
+        <v>4.974793624951986e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.509375000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>580409.1531086416</v>
+        <v>632209.9243094744</v>
       </c>
     </row>
   </sheetData>
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>589.2956177198115</v>
+        <v>633.1828019046129</v>
       </c>
       <c r="AB2" t="n">
-        <v>806.300262052062</v>
+        <v>866.3486436196255</v>
       </c>
       <c r="AC2" t="n">
-        <v>729.3480966913376</v>
+        <v>783.6655450005259</v>
       </c>
       <c r="AD2" t="n">
-        <v>589295.6177198115</v>
+        <v>633182.8019046129</v>
       </c>
       <c r="AE2" t="n">
-        <v>806300.262052062</v>
+        <v>866348.6436196255</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.139925226048541e-06</v>
+        <v>4.34478804878404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.842708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>729348.0966913375</v>
+        <v>783665.5450005259</v>
       </c>
     </row>
     <row r="3">
@@ -3660,28 +3660,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>457.1515047775536</v>
+        <v>500.9533481077835</v>
       </c>
       <c r="AB3" t="n">
-        <v>625.4948569376476</v>
+        <v>685.4264713830136</v>
       </c>
       <c r="AC3" t="n">
-        <v>565.7985056790631</v>
+        <v>620.0103309563125</v>
       </c>
       <c r="AD3" t="n">
-        <v>457151.5047775536</v>
+        <v>500953.3481077835</v>
       </c>
       <c r="AE3" t="n">
-        <v>625494.8569376476</v>
+        <v>685426.4713830135</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.429909823420172e-06</v>
+        <v>4.933557038305328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.90625</v>
       </c>
       <c r="AH3" t="n">
-        <v>565798.505679063</v>
+        <v>620010.3309563125</v>
       </c>
     </row>
   </sheetData>
@@ -3957,28 +3957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>491.0579270701931</v>
+        <v>531.1586289121465</v>
       </c>
       <c r="AB2" t="n">
-        <v>671.8871197642168</v>
+        <v>726.7546691424845</v>
       </c>
       <c r="AC2" t="n">
-        <v>607.7631560534144</v>
+        <v>657.3942235261095</v>
       </c>
       <c r="AD2" t="n">
-        <v>491057.9270701931</v>
+        <v>531158.6289121464</v>
       </c>
       <c r="AE2" t="n">
-        <v>671887.1197642168</v>
+        <v>726754.6691424845</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.191636245511075e-06</v>
+        <v>4.880345839505066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>607763.1560534143</v>
+        <v>657394.2235261095</v>
       </c>
     </row>
   </sheetData>
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1498.887911209104</v>
+        <v>1570.151293174656</v>
       </c>
       <c r="AB2" t="n">
-        <v>2050.844566383982</v>
+        <v>2148.350269507774</v>
       </c>
       <c r="AC2" t="n">
-        <v>1855.114839346721</v>
+        <v>1943.314735014492</v>
       </c>
       <c r="AD2" t="n">
-        <v>1498887.911209104</v>
+        <v>1570151.293174656</v>
       </c>
       <c r="AE2" t="n">
-        <v>2050844.566383981</v>
+        <v>2148350.269507774</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.341849960433919e-06</v>
+        <v>2.537121153931433e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.61041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1855114.839346721</v>
+        <v>1943314.735014492</v>
       </c>
     </row>
     <row r="3">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>573.8838396592574</v>
+        <v>621.3074201150532</v>
       </c>
       <c r="AB3" t="n">
-        <v>785.2131873899501</v>
+        <v>850.100222350281</v>
       </c>
       <c r="AC3" t="n">
-        <v>710.2735428390827</v>
+        <v>768.967850252325</v>
       </c>
       <c r="AD3" t="n">
-        <v>573883.8396592574</v>
+        <v>621307.4201150532</v>
       </c>
       <c r="AE3" t="n">
-        <v>785213.1873899502</v>
+        <v>850100.222350281</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.266727374090111e-06</v>
+        <v>4.285845765602408e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.872916666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>710273.5428390827</v>
+        <v>768967.8502523249</v>
       </c>
     </row>
     <row r="4">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>490.1744293720275</v>
+        <v>525.7208690087824</v>
       </c>
       <c r="AB4" t="n">
-        <v>670.678279236419</v>
+        <v>719.3144861456661</v>
       </c>
       <c r="AC4" t="n">
-        <v>606.6696855689713</v>
+        <v>650.6641211521448</v>
       </c>
       <c r="AD4" t="n">
-        <v>490174.4293720275</v>
+        <v>525720.8690087824</v>
       </c>
       <c r="AE4" t="n">
-        <v>670678.279236419</v>
+        <v>719314.4861456661</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.456518680353e-06</v>
+        <v>4.644696272104747e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.341666666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>606669.6855689713</v>
+        <v>650664.1211521449</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>520.8176365497767</v>
+        <v>560.0160819975227</v>
       </c>
       <c r="AB2" t="n">
-        <v>712.6056671799049</v>
+        <v>766.2387095548755</v>
       </c>
       <c r="AC2" t="n">
-        <v>644.5955824525895</v>
+        <v>693.1099625377406</v>
       </c>
       <c r="AD2" t="n">
-        <v>520817.6365497767</v>
+        <v>560016.0819975227</v>
       </c>
       <c r="AE2" t="n">
-        <v>712605.6671799049</v>
+        <v>766238.7095548755</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.06568396139735e-06</v>
+        <v>4.735718362157239e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.026041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>644595.5824525895</v>
+        <v>693109.9625377406</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>903.9509138456086</v>
+        <v>960.7567749783013</v>
       </c>
       <c r="AB2" t="n">
-        <v>1236.825519823327</v>
+        <v>1314.549805122799</v>
       </c>
       <c r="AC2" t="n">
-        <v>1118.784628106908</v>
+        <v>1189.091016704117</v>
       </c>
       <c r="AD2" t="n">
-        <v>903950.9138456086</v>
+        <v>960756.7749783014</v>
       </c>
       <c r="AE2" t="n">
-        <v>1236825.519823327</v>
+        <v>1314549.805122799</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.750035737055992e-06</v>
+        <v>3.430045859251044e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.255208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1118784.628106908</v>
+        <v>1189091.016704117</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>467.5576716801316</v>
+        <v>501.8288845346742</v>
       </c>
       <c r="AB3" t="n">
-        <v>639.7330335814376</v>
+        <v>686.6244189482267</v>
       </c>
       <c r="AC3" t="n">
-        <v>578.6778107273763</v>
+        <v>621.0939480872316</v>
       </c>
       <c r="AD3" t="n">
-        <v>467557.6716801316</v>
+        <v>501828.8845346742</v>
       </c>
       <c r="AE3" t="n">
-        <v>639733.0335814375</v>
+        <v>686624.4189482266</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.458912940542289e-06</v>
+        <v>4.81943538144789e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.586458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>578677.8107273763</v>
+        <v>621093.9480872316</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>469.6061816573231</v>
+        <v>503.8773945118658</v>
       </c>
       <c r="AB4" t="n">
-        <v>642.5358953061129</v>
+        <v>689.4272806729019</v>
       </c>
       <c r="AC4" t="n">
-        <v>581.2131712628898</v>
+        <v>623.629308622745</v>
       </c>
       <c r="AD4" t="n">
-        <v>469606.1816573231</v>
+        <v>503877.3945118658</v>
       </c>
       <c r="AE4" t="n">
-        <v>642535.8953061129</v>
+        <v>689427.2806729019</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.460623326424796e-06</v>
+        <v>4.822787714140184e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.582291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>581213.1712628898</v>
+        <v>623629.3086227451</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1170.209337197909</v>
+        <v>1228.353472181912</v>
       </c>
       <c r="AB2" t="n">
-        <v>1601.132041146557</v>
+        <v>1680.687411769866</v>
       </c>
       <c r="AC2" t="n">
-        <v>1448.322246342462</v>
+        <v>1520.284964050147</v>
       </c>
       <c r="AD2" t="n">
-        <v>1170209.337197909</v>
+        <v>1228353.472181912</v>
       </c>
       <c r="AE2" t="n">
-        <v>1601132.041146557</v>
+        <v>1680687.411769866</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.531715389005731e-06</v>
+        <v>2.945033898020757e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.36041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1448322.246342462</v>
+        <v>1520284.964050147</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>498.670734558917</v>
+        <v>533.6937072115023</v>
       </c>
       <c r="AB3" t="n">
-        <v>682.3032988236519</v>
+        <v>730.2232751114245</v>
       </c>
       <c r="AC3" t="n">
-        <v>617.1852296026161</v>
+        <v>660.531790609593</v>
       </c>
       <c r="AD3" t="n">
-        <v>498670.7345589171</v>
+        <v>533693.7072115024</v>
       </c>
       <c r="AE3" t="n">
-        <v>682303.2988236519</v>
+        <v>730223.2751114245</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.408787747719277e-06</v>
+        <v>4.631383624587844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>617185.2296026162</v>
+        <v>660531.790609593</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>479.2438802353741</v>
+        <v>514.0962606873672</v>
       </c>
       <c r="AB4" t="n">
-        <v>655.7226196858554</v>
+        <v>703.4091841987812</v>
       </c>
       <c r="AC4" t="n">
-        <v>593.1413731755135</v>
+        <v>636.2767988998392</v>
       </c>
       <c r="AD4" t="n">
-        <v>479243.8802353741</v>
+        <v>514096.2606873673</v>
       </c>
       <c r="AE4" t="n">
-        <v>655722.6196858555</v>
+        <v>703409.1841987811</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.461195753867872e-06</v>
+        <v>4.73214865949128e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.447916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>593141.3731755136</v>
+        <v>636276.7988998392</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1959.45710372272</v>
+        <v>2032.014325867488</v>
       </c>
       <c r="AB2" t="n">
-        <v>2681.015654459849</v>
+        <v>2780.291646797047</v>
       </c>
       <c r="AC2" t="n">
-        <v>2425.143283227304</v>
+        <v>2514.944514190571</v>
       </c>
       <c r="AD2" t="n">
-        <v>1959457.10372272</v>
+        <v>2032014.325867489</v>
       </c>
       <c r="AE2" t="n">
-        <v>2681015.654459849</v>
+        <v>2780291.646797047</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.163464607123942e-06</v>
+        <v>2.167446318441729e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.165625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2425143.283227304</v>
+        <v>2514944.514190571</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>676.7961365962404</v>
+        <v>713.0747924229004</v>
       </c>
       <c r="AB3" t="n">
-        <v>926.022332229242</v>
+        <v>975.6603896326152</v>
       </c>
       <c r="AC3" t="n">
-        <v>837.6440605217886</v>
+        <v>882.5447313940348</v>
       </c>
       <c r="AD3" t="n">
-        <v>676796.1365962405</v>
+        <v>713074.7924229003</v>
       </c>
       <c r="AE3" t="n">
-        <v>926022.332229242</v>
+        <v>975660.3896326151</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.116058606738312e-06</v>
+        <v>3.942056688874681e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.238541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>837644.0605217885</v>
+        <v>882544.7313940348</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>506.432536503327</v>
+        <v>542.6258514754151</v>
       </c>
       <c r="AB4" t="n">
-        <v>692.9233386705281</v>
+        <v>742.4446289517033</v>
       </c>
       <c r="AC4" t="n">
-        <v>626.791707751826</v>
+        <v>671.5867555921335</v>
       </c>
       <c r="AD4" t="n">
-        <v>506432.536503327</v>
+        <v>542625.8514754151</v>
       </c>
       <c r="AE4" t="n">
-        <v>692923.3386705281</v>
+        <v>742444.6289517033</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.436481935722522e-06</v>
+        <v>4.538981047808519e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.286458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>626791.707751826</v>
+        <v>671586.7555921335</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>504.6293632075442</v>
+        <v>540.8226781796322</v>
       </c>
       <c r="AB5" t="n">
-        <v>690.4561574168467</v>
+        <v>739.9774476980222</v>
       </c>
       <c r="AC5" t="n">
-        <v>624.5599908142854</v>
+        <v>669.3550386545928</v>
       </c>
       <c r="AD5" t="n">
-        <v>504629.3632075442</v>
+        <v>540822.6781796323</v>
       </c>
       <c r="AE5" t="n">
-        <v>690456.1574168467</v>
+        <v>739977.4476980221</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.443834467365115e-06</v>
+        <v>4.552678256595436e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.267708333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>624559.9908142854</v>
+        <v>669355.0386545928</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>687.0758805199298</v>
+        <v>731.4725631303454</v>
       </c>
       <c r="AB2" t="n">
-        <v>940.0875313759282</v>
+        <v>1000.833031166902</v>
       </c>
       <c r="AC2" t="n">
-        <v>850.3668968025461</v>
+        <v>905.3149313503134</v>
       </c>
       <c r="AD2" t="n">
-        <v>687075.8805199298</v>
+        <v>731472.5631303454</v>
       </c>
       <c r="AE2" t="n">
-        <v>940087.5313759282</v>
+        <v>1000833.031166902</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.002260056481875e-06</v>
+        <v>4.013524987168708e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.277083333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>850366.8968025461</v>
+        <v>905314.9313503134</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>459.461990840217</v>
+        <v>503.8585839420816</v>
       </c>
       <c r="AB3" t="n">
-        <v>628.6561659000346</v>
+        <v>689.4015432214594</v>
       </c>
       <c r="AC3" t="n">
-        <v>568.6581037510048</v>
+        <v>623.6060275175455</v>
       </c>
       <c r="AD3" t="n">
-        <v>459461.990840217</v>
+        <v>503858.5839420815</v>
       </c>
       <c r="AE3" t="n">
-        <v>628656.1659000346</v>
+        <v>689401.5432214594</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.444519945010368e-06</v>
+        <v>4.900033763930905e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.779166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>568658.1037510048</v>
+        <v>623606.0275175455</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>472.8597405850197</v>
+        <v>515.2701444119156</v>
       </c>
       <c r="AB2" t="n">
-        <v>646.987558167877</v>
+        <v>705.0153436988033</v>
       </c>
       <c r="AC2" t="n">
-        <v>585.239973669075</v>
+        <v>637.7296687914383</v>
       </c>
       <c r="AD2" t="n">
-        <v>472859.7405850196</v>
+        <v>515270.1444119156</v>
       </c>
       <c r="AE2" t="n">
-        <v>646987.5581678769</v>
+        <v>705015.3436988033</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.352989840354872e-06</v>
+        <v>4.922601897105581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.336458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>585239.9736690749</v>
+        <v>637729.6687914382</v>
       </c>
     </row>
     <row r="3">
@@ -7202,28 +7202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>466.0279702144448</v>
+        <v>497.963806743612</v>
       </c>
       <c r="AB3" t="n">
-        <v>637.6400285504193</v>
+        <v>681.3360489992975</v>
       </c>
       <c r="AC3" t="n">
-        <v>576.7845591589672</v>
+        <v>616.3102927439545</v>
       </c>
       <c r="AD3" t="n">
-        <v>466027.9702144449</v>
+        <v>497963.806743612</v>
       </c>
       <c r="AE3" t="n">
-        <v>637640.0285504193</v>
+        <v>681336.0489992975</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.380829990589369e-06</v>
+        <v>4.980845232461151e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>576784.5591589672</v>
+        <v>616310.2927439545</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>470.2259224497703</v>
+        <v>511.2874632613463</v>
       </c>
       <c r="AB2" t="n">
-        <v>643.3838519993734</v>
+        <v>699.5660636451023</v>
       </c>
       <c r="AC2" t="n">
-        <v>581.9802001594601</v>
+        <v>632.80046037795</v>
       </c>
       <c r="AD2" t="n">
-        <v>470225.9224497703</v>
+        <v>511287.4632613463</v>
       </c>
       <c r="AE2" t="n">
-        <v>643383.8519993734</v>
+        <v>699566.0636451023</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.277206033541809e-06</v>
+        <v>4.950317475167634e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.841666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>581980.2001594601</v>
+        <v>632800.46037795</v>
       </c>
     </row>
   </sheetData>
@@ -12441,28 +12441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>571.6222191104919</v>
+        <v>619.0988544696742</v>
       </c>
       <c r="AB2" t="n">
-        <v>782.1187383794723</v>
+        <v>847.0783653992337</v>
       </c>
       <c r="AC2" t="n">
-        <v>707.4744236990783</v>
+        <v>766.2343950874828</v>
       </c>
       <c r="AD2" t="n">
-        <v>571622.2191104919</v>
+        <v>619098.8544696742</v>
       </c>
       <c r="AE2" t="n">
-        <v>782118.7383794724</v>
+        <v>847078.3653992336</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.86438102845858e-06</v>
+        <v>4.434480546469598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.27916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>707474.4236990784</v>
+        <v>766234.3950874828</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1021.397867081992</v>
+        <v>1079.01414858776</v>
       </c>
       <c r="AB2" t="n">
-        <v>1397.521622635239</v>
+        <v>1476.354760842376</v>
       </c>
       <c r="AC2" t="n">
-        <v>1264.144120404847</v>
+        <v>1335.453534544499</v>
       </c>
       <c r="AD2" t="n">
-        <v>1021397.867081992</v>
+        <v>1079014.14858776</v>
       </c>
       <c r="AE2" t="n">
-        <v>1397521.622635239</v>
+        <v>1476354.760842375</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.639635894883975e-06</v>
+        <v>3.181841665332085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.775</v>
       </c>
       <c r="AH2" t="n">
-        <v>1264144.120404847</v>
+        <v>1335453.534544499</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>476.8371576165176</v>
+        <v>511.4922673745499</v>
       </c>
       <c r="AB3" t="n">
-        <v>652.4296356216275</v>
+        <v>699.8462856681075</v>
       </c>
       <c r="AC3" t="n">
-        <v>590.1626668886435</v>
+        <v>633.0539384043735</v>
       </c>
       <c r="AD3" t="n">
-        <v>476837.1576165176</v>
+        <v>511492.2673745499</v>
       </c>
       <c r="AE3" t="n">
-        <v>652429.6356216276</v>
+        <v>699846.2856681074</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.448529091149464e-06</v>
+        <v>4.751562164079341e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.545833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>590162.6668886434</v>
+        <v>633053.9384043735</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>475.2571020042386</v>
+        <v>509.9122117622709</v>
       </c>
       <c r="AB4" t="n">
-        <v>650.2677338257735</v>
+        <v>697.6843838722533</v>
       </c>
       <c r="AC4" t="n">
-        <v>588.2070939659374</v>
+        <v>631.0983654816674</v>
       </c>
       <c r="AD4" t="n">
-        <v>475257.1020042386</v>
+        <v>509912.2117622709</v>
       </c>
       <c r="AE4" t="n">
-        <v>650267.7338257735</v>
+        <v>697684.3838722534</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.45791514497716e-06</v>
+        <v>4.769776535474353e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.520833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>588207.0939659374</v>
+        <v>631098.3654816675</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1713.741322705599</v>
+        <v>1785.577055584326</v>
       </c>
       <c r="AB2" t="n">
-        <v>2344.816482657031</v>
+        <v>2443.10530155057</v>
       </c>
       <c r="AC2" t="n">
-        <v>2121.030488522846</v>
+        <v>2209.938760490409</v>
       </c>
       <c r="AD2" t="n">
-        <v>1713741.322705599</v>
+        <v>1785577.055584326</v>
       </c>
       <c r="AE2" t="n">
-        <v>2344816.482657031</v>
+        <v>2443105.30155057</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.250244453296612e-06</v>
+        <v>2.345948976821535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.353125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2121030.488522846</v>
+        <v>2209938.760490409</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>631.2289615876732</v>
+        <v>667.1895432085977</v>
       </c>
       <c r="AB3" t="n">
-        <v>863.6753131006375</v>
+        <v>912.8781673432801</v>
       </c>
       <c r="AC3" t="n">
-        <v>781.247353394227</v>
+        <v>825.7543562845915</v>
       </c>
       <c r="AD3" t="n">
-        <v>631228.9615876732</v>
+        <v>667189.5432085977</v>
       </c>
       <c r="AE3" t="n">
-        <v>863675.3131006375</v>
+        <v>912878.16734328</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.188372614587843e-06</v>
+        <v>4.106245368703634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.058333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>781247.3533942271</v>
+        <v>825754.3562845915</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>497.8557872229778</v>
+        <v>533.7310279893308</v>
       </c>
       <c r="AB4" t="n">
-        <v>681.188251925681</v>
+        <v>730.2743390461258</v>
       </c>
       <c r="AC4" t="n">
-        <v>616.1766012156094</v>
+        <v>660.5779810740349</v>
       </c>
       <c r="AD4" t="n">
-        <v>497855.7872229778</v>
+        <v>533731.0279893307</v>
       </c>
       <c r="AE4" t="n">
-        <v>681188.251925681</v>
+        <v>730274.3390461258</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.446072431930053e-06</v>
+        <v>4.589791303442228e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.314583333333332</v>
       </c>
       <c r="AH4" t="n">
-        <v>616176.6012156093</v>
+        <v>660577.9810740349</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>499.5070578295063</v>
+        <v>535.3822985958592</v>
       </c>
       <c r="AB5" t="n">
-        <v>683.4475932184509</v>
+        <v>732.5336803388959</v>
       </c>
       <c r="AC5" t="n">
-        <v>618.2203141464028</v>
+        <v>662.6216940048284</v>
       </c>
       <c r="AD5" t="n">
-        <v>499507.0578295063</v>
+        <v>535382.2985958592</v>
       </c>
       <c r="AE5" t="n">
-        <v>683447.5932184509</v>
+        <v>732533.6803388959</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.447555169659294e-06</v>
+        <v>4.592573500995385e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.310416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>618220.3141464028</v>
+        <v>662621.6940048285</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>676.6209829036613</v>
+        <v>740.6569927917234</v>
       </c>
       <c r="AB2" t="n">
-        <v>925.7826792198194</v>
+        <v>1013.399573018039</v>
       </c>
       <c r="AC2" t="n">
-        <v>837.4272796592302</v>
+        <v>916.6821400844303</v>
       </c>
       <c r="AD2" t="n">
-        <v>676620.9829036613</v>
+        <v>740656.9927917233</v>
       </c>
       <c r="AE2" t="n">
-        <v>925782.6792198195</v>
+        <v>1013399.573018039</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.536187852671345e-06</v>
+        <v>3.841889238954342e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.91875</v>
       </c>
       <c r="AH2" t="n">
-        <v>837427.2796592301</v>
+        <v>916682.1400844303</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.7158889179412</v>
+        <v>556.8010846147207</v>
       </c>
       <c r="AB2" t="n">
-        <v>702.8887427630343</v>
+        <v>761.8398083000515</v>
       </c>
       <c r="AC2" t="n">
-        <v>635.8060276642758</v>
+        <v>689.1308862447804</v>
       </c>
       <c r="AD2" t="n">
-        <v>513715.8889179412</v>
+        <v>556801.0846147207</v>
       </c>
       <c r="AE2" t="n">
-        <v>702888.7427630343</v>
+        <v>761839.8083000515</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.280644233932084e-06</v>
+        <v>4.696492944791199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.458333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>635806.0276642758</v>
+        <v>689130.8862447804</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>466.4536973603592</v>
+        <v>498.8956277919391</v>
       </c>
       <c r="AB3" t="n">
-        <v>638.2225272132155</v>
+        <v>682.6110076666619</v>
       </c>
       <c r="AC3" t="n">
-        <v>577.3114649669282</v>
+        <v>617.4635711455214</v>
       </c>
       <c r="AD3" t="n">
-        <v>466453.6973603592</v>
+        <v>498895.6277919391</v>
       </c>
       <c r="AE3" t="n">
-        <v>638222.5272132155</v>
+        <v>682611.0076666619</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.409487732469418e-06</v>
+        <v>4.961818230015332e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.060416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>577311.4649669281</v>
+        <v>617463.5711455215</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>784.9459127004226</v>
+        <v>841.1671084897187</v>
       </c>
       <c r="AB2" t="n">
-        <v>1073.997627126369</v>
+        <v>1150.921947509391</v>
       </c>
       <c r="AC2" t="n">
-        <v>971.4968009585643</v>
+        <v>1041.079572168193</v>
       </c>
       <c r="AD2" t="n">
-        <v>784945.9127004226</v>
+        <v>841167.1084897186</v>
       </c>
       <c r="AE2" t="n">
-        <v>1073997.627126369</v>
+        <v>1150921.947509391</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.871106778201217e-06</v>
+        <v>3.707007020421406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.753124999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>971496.8009585644</v>
+        <v>1041079.572168193</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>463.7095121898564</v>
+        <v>508.669400650379</v>
       </c>
       <c r="AB3" t="n">
-        <v>634.467811998028</v>
+        <v>695.9839148800061</v>
       </c>
       <c r="AC3" t="n">
-        <v>573.9150945021024</v>
+        <v>629.5601868634172</v>
       </c>
       <c r="AD3" t="n">
-        <v>463709.5121898564</v>
+        <v>508669.400650379</v>
       </c>
       <c r="AE3" t="n">
-        <v>634467.811998028</v>
+        <v>695983.9148800061</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.4525161442871e-06</v>
+        <v>4.858886018952484e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.678125000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>573915.0945021025</v>
+        <v>629560.1868634173</v>
       </c>
     </row>
   </sheetData>
